--- a/Simper_OTU_post.xlsx
+++ b/Simper_OTU_post.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chian\Documents\GitHub\Stevia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71229C8-14B3-461B-861F-4297D4655913}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329BA125-C08E-4FFA-B4BF-C2BE3696497C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9732" xr2:uid="{B15D4E58-86D0-4995-91CD-6C628034EDA4}"/>
   </bookViews>
@@ -515,14 +515,15 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="87.44140625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="28.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
